--- a/src/assets/sample-files/vendor.xlsx
+++ b/src/assets/sample-files/vendor.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WDS-030\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor" sheetId="1" r:id="rId1"/>
     <sheet name="State" sheetId="2" r:id="rId2"/>
     <sheet name="Address" sheetId="3" r:id="rId3"/>
     <sheet name="SpecialTds" sheetId="4" r:id="rId4"/>
+    <sheet name="CurrencyMapping" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Pan No</t>
   </si>
@@ -48,9 +54,6 @@
     <t>Account Type</t>
   </si>
   <si>
-    <t>werty435</t>
-  </si>
-  <si>
     <t>Vendor Name</t>
   </si>
   <si>
@@ -105,18 +108,9 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>dfn</t>
-  </si>
-  <si>
-    <t>Mettur</t>
-  </si>
-  <si>
     <t>Commericial</t>
   </si>
   <si>
-    <t>Mecheri</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -153,18 +147,6 @@
     <t>MANUFACTURER</t>
   </si>
   <si>
-    <t>RECEIVABLE</t>
-  </si>
-  <si>
-    <t>TN000001</t>
-  </si>
-  <si>
-    <t>ASMA</t>
-  </si>
-  <si>
-    <t>durai@gmail.com</t>
-  </si>
-  <si>
     <t>CHENNAI</t>
   </si>
   <si>
@@ -180,16 +162,52 @@
     <t>SPECIAL</t>
   </si>
   <si>
-    <t>RICHARD</t>
-  </si>
-  <si>
-    <t>DIVYA</t>
+    <t>Transaction currency</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>ABCD PVT LTD</t>
+  </si>
+  <si>
+    <t>29GGGGG1314R9Z6</t>
+  </si>
+  <si>
+    <t>ABCDE1234F</t>
+  </si>
+  <si>
+    <t>PAYABLE</t>
+  </si>
+  <si>
+    <t>JOE</t>
+  </si>
+  <si>
+    <t>ALICE</t>
+  </si>
+  <si>
+    <t>joe@gmail.com</t>
+  </si>
+  <si>
+    <t>alice@gmail.com</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Defg</t>
+  </si>
+  <si>
+    <t>Hij</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,17 +533,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -534,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -566,13 +585,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2">
-        <v>98789</v>
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -581,19 +600,19 @@
         <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -606,95 +625,97 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
+      <c r="D2" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>9087678876</v>
+        <v>9876543210</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="1">
-        <v>7889868899</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -711,124 +732,124 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I2">
-        <v>560106</v>
+        <v>100001</v>
       </c>
       <c r="J2">
-        <v>9098765567</v>
+        <v>9876543210</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I3">
-        <v>787865</v>
+        <v>100001</v>
       </c>
       <c r="J3">
-        <v>6578998765</v>
+        <v>9876543210</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +862,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,39 +877,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -906,18 +927,18 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -935,14 +956,57 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>